--- a/data/trans_orig/P14B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{601665B5-A270-4ED9-A323-BA5A8F7BAC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5BEC08-7D0A-4A1D-9136-4BA378F6DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21F53A45-EC3B-4FBC-8AC4-1492984A2B6C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{025BE215-3E01-43CA-8A74-0B83C0087C52}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>28,07%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>66,67%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,103 +196,103 @@
     <t>49,06%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>59,34%</t>
   </si>
   <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>75,23%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>24,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,205 +304,199 @@
     <t>77,14%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>62,21%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>68,99%</t>
   </si>
   <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -511,22 +505,22 @@
     <t>75,83%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>75,99%</t>
   </si>
   <si>
     <t>81,32%</t>
@@ -535,16 +529,16 @@
     <t>24,17%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>21,35%</t>
@@ -553,169 +547,169 @@
     <t>18,68%</t>
   </si>
   <si>
-    <t>24,09%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>60,72%</t>
   </si>
   <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
   </si>
   <si>
     <t>66,92%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>45,61%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>51,63%</t>
   </si>
   <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>50,56%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81AFC31-DA28-414B-A750-8BFC494C459C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12960736-B362-47F5-A0C6-A03D42CD8262}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1248,7 +1242,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="7">
-        <v>108624</v>
+        <v>108623</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1350,7 +1344,7 @@
         <v>142</v>
       </c>
       <c r="D6" s="7">
-        <v>151015</v>
+        <v>151014</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1633,7 +1627,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -1642,13 +1636,13 @@
         <v>32314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1710,13 @@
         <v>201218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>443</v>
@@ -1731,13 +1725,13 @@
         <v>481044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>629</v>
@@ -1746,13 +1740,13 @@
         <v>682262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1761,13 @@
         <v>103959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -1782,13 +1776,13 @@
         <v>157145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -1797,13 +1791,13 @@
         <v>261104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE662BA-3ABD-4688-B81E-04FDB15C74A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A7F7F-CF70-46B7-82C1-DC5C146DD445}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2178,7 +2172,7 @@
         <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2187,13 +2181,13 @@
         <v>255029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,10 +2220,10 @@
         <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -2238,10 +2232,10 @@
         <v>114615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2333,7 +2327,7 @@
         <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2342,13 +2336,13 @@
         <v>41348</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2357,13 @@
         <v>17199</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2378,13 +2372,13 @@
         <v>15445</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2393,13 +2387,13 @@
         <v>32643</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2461,13 @@
         <v>192837</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2482,13 +2476,13 @@
         <v>363449</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>506</v>
@@ -2497,13 +2491,13 @@
         <v>556287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>84651</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -2533,13 +2527,13 @@
         <v>128252</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -2548,13 +2542,13 @@
         <v>212903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBB959D-56DF-4DD5-8A92-1AB999AB8576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EEFAA-7692-41C7-B719-23E12938D36A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2747,13 @@
         <v>137965</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>609</v>
@@ -2771,10 +2765,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>796</v>
@@ -2783,13 +2777,13 @@
         <v>483550</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2798,13 @@
         <v>43964</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>150</v>
@@ -2822,10 +2816,10 @@
         <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -2834,13 +2828,13 @@
         <v>131234</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2902,13 @@
         <v>218551</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>559</v>
@@ -2923,13 +2917,13 @@
         <v>362922</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>800</v>
@@ -2938,13 +2932,13 @@
         <v>581472</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2953,13 @@
         <v>141394</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -2974,13 +2968,13 @@
         <v>179387</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>409</v>
@@ -2989,13 +2983,13 @@
         <v>320781</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>39706</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3078,13 +3072,13 @@
         <v>78399</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -3093,13 +3087,13 @@
         <v>118105</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3108,13 @@
         <v>47348</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -3129,13 +3123,13 @@
         <v>73448</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>153</v>
@@ -3144,13 +3138,13 @@
         <v>120797</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3212,13 @@
         <v>396222</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>1298</v>
@@ -3233,13 +3227,13 @@
         <v>786905</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>1771</v>
@@ -3248,13 +3242,13 @@
         <v>1183127</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>232706</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -3284,13 +3278,13 @@
         <v>340106</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -3299,13 +3293,13 @@
         <v>572812</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5BEC08-7D0A-4A1D-9136-4BA378F6DB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D18E1248-FA44-4349-BB46-777E069BD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{025BE215-3E01-43CA-8A74-0B83C0087C52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E320905B-CE3F-44F6-BE46-63C4E0CCD1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>28,07%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
   </si>
   <si>
     <t>66,67%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>33,33%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,307 +196,319 @@
     <t>49,06%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>59,34%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>40,66%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>75,23%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>27,68%</t>
   </si>
   <si>
-    <t>24,77%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
+    <t>Población cuyo dolor de espalda le limita en 2016 (Tasa respuesta: 10,75%)</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>64,4%</t>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>31,01%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
   </si>
   <si>
     <t>50,29%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>44,56%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>55,88%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>55,44%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>73,92%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -625,9 +637,6 @@
     <t>49,44%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
     <t>54,67%</t>
   </si>
   <si>
@@ -653,9 +662,6 @@
   </si>
   <si>
     <t>45,33%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
   </si>
   <si>
     <t>63,0%</t>
@@ -1121,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12960736-B362-47F5-A0C6-A03D42CD8262}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0687E03A-5B0D-49BF-A3B8-8FEAC707822E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1743,10 +1749,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1767,13 @@
         <v>103959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -1776,13 +1782,13 @@
         <v>157145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -1791,13 +1797,13 @@
         <v>261104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96A7F7F-CF70-46B7-82C1-DC5C146DD445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9B3781-A837-4E61-BC3A-2CEA7DA47C8F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1996,13 +2002,13 @@
         <v>77072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>158</v>
@@ -2011,13 +2017,13 @@
         <v>182838</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>237</v>
@@ -2026,13 +2032,13 @@
         <v>259911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2053,13 @@
         <v>22840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>39</v>
@@ -2062,13 +2068,13 @@
         <v>42804</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -2077,13 +2083,13 @@
         <v>65644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,16 +2154,16 @@
         <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>98365</v>
+        <v>98364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -2166,13 +2172,13 @@
         <v>156664</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2181,13 +2187,13 @@
         <v>255029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2208,13 @@
         <v>44612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2217,13 +2223,13 @@
         <v>70003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -2232,13 +2238,13 @@
         <v>114615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2256,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="7">
-        <v>142977</v>
+        <v>142976</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2306,13 +2312,13 @@
         <v>17401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2321,13 +2327,13 @@
         <v>23947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2336,13 +2342,13 @@
         <v>41348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2363,13 @@
         <v>17199</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2372,13 +2378,13 @@
         <v>15445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>30</v>
@@ -2387,13 +2393,13 @@
         <v>32643</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2467,13 @@
         <v>192837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2476,13 +2482,13 @@
         <v>363449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>506</v>
@@ -2494,10 +2500,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2518,13 @@
         <v>84651</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -2527,13 +2533,13 @@
         <v>128252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -2542,13 +2548,13 @@
         <v>212903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EEFAA-7692-41C7-B719-23E12938D36A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4735C91F-518C-487B-BD0D-71BD8F268575}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,13 +2753,13 @@
         <v>137965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>609</v>
@@ -2762,13 +2768,13 @@
         <v>345584</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>796</v>
@@ -2777,13 +2783,13 @@
         <v>483550</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2804,13 @@
         <v>43964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>150</v>
@@ -2813,13 +2819,13 @@
         <v>87271</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -2828,13 +2834,13 @@
         <v>131234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2908,13 @@
         <v>218551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>559</v>
@@ -2917,13 +2923,13 @@
         <v>362922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>800</v>
@@ -2932,13 +2938,13 @@
         <v>581472</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>141394</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -2968,13 +2974,13 @@
         <v>179387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>409</v>
@@ -2983,13 +2989,13 @@
         <v>320781</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>39706</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3072,13 +3078,13 @@
         <v>78399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -3087,13 +3093,13 @@
         <v>118105</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>47348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -3123,13 +3129,13 @@
         <v>73448</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>153</v>
@@ -3138,13 +3144,13 @@
         <v>120797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3218,13 @@
         <v>396222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>1298</v>
@@ -3227,13 +3233,13 @@
         <v>786905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>1771</v>
@@ -3242,13 +3248,13 @@
         <v>1183127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3269,13 @@
         <v>232706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -3278,13 +3284,13 @@
         <v>340106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>770</v>
@@ -3293,13 +3299,13 @@
         <v>572812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
